--- a/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
+++ b/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,17 +11,18 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Autor</author>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -36,7 +37,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A56" authorId="0">
+    <comment ref="A56" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -331,13 +332,19 @@
   </si>
   <si>
     <t>Holy Grail Theme: everything must tie into the Monty Python theme (knight, rabbit, etc…)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,12 +594,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -634,7 +644,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,9 +676,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -700,6 +711,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -875,14 +887,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="106.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
@@ -898,7 +910,7 @@
     <col min="13" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
@@ -914,7 +926,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -952,7 +964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>66</v>
       </c>
@@ -982,7 +994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>71</v>
       </c>
@@ -995,15 +1007,19 @@
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G4" s="16">
         <f t="shared" ref="G4:G30" si="0" xml:space="preserve"> IF(EXACT(F4,"X"),IF(EXACT(E4,"I"),$B4,IF(EXACT(E4,"II"),$C4,IF(EXACT(E4,"III"),$D4,0))),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="17">
         <f>IF(SUMIF(E4:E71,"=I",G4:G71) + SUMIF(C73:C74, "X",B73:B74) &gt; 18, 18, SUMIF(E4:E71,"=I",G4:G71) + SUMIF(C73:C74, "X",B73:B74))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E71,"=II",G4:G71) + SUMIF(D73:D74, "X",B73:B74) &gt; 18, 18, SUMIF(E4:E71,"=II",G4:G71) + SUMIF(D73:D74, "X",B73:B74))</f>
@@ -1019,10 +1035,10 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G71) + SUMIF(C73:C74, "X",B73:B74) + SUMIF(D73:D74, "X",B73:B74) + SUMIF(E73:E74, "X",B73:B74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>53</v>
       </c>
@@ -1055,7 +1071,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>36</v>
       </c>
@@ -1092,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>54</v>
       </c>
@@ -1123,7 +1139,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
@@ -1144,7 +1160,7 @@
       </c>
       <c r="H8" s="18">
         <f>H4+IF(H4 &lt; 18, IF(K4+H4 &gt; 18, 18- H4, K4),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="17">
         <f>I4+IF(I4 &lt; 18, IF(H10+I4 &gt; 18, 18- I4, H10),0)</f>
@@ -1157,7 +1173,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>38</v>
       </c>
@@ -1188,7 +1204,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>67</v>
       </c>
@@ -1222,7 +1238,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>39</v>
       </c>
@@ -1247,7 +1263,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1264,7 +1280,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>64</v>
       </c>
@@ -1283,7 +1299,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1300,7 +1316,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1317,7 +1333,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
@@ -1336,7 +1352,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -1361,7 +1377,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>62</v>
       </c>
@@ -1386,7 +1402,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -1411,7 +1427,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>40</v>
       </c>
@@ -1436,7 +1452,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>55</v>
       </c>
@@ -1461,7 +1477,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1478,7 +1494,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1495,7 +1511,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>9</v>
       </c>
@@ -1514,7 +1530,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>43</v>
       </c>
@@ -1539,7 +1555,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>44</v>
       </c>
@@ -1564,7 +1580,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>45</v>
       </c>
@@ -1589,7 +1605,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>46</v>
       </c>
@@ -1614,7 +1630,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>47</v>
       </c>
@@ -1639,7 +1655,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>48</v>
       </c>
@@ -1664,7 +1680,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>49</v>
       </c>
@@ -1689,7 +1705,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>61</v>
       </c>
@@ -1714,7 +1730,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>72</v>
       </c>
@@ -1739,7 +1755,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>73</v>
       </c>
@@ -1764,7 +1780,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>56</v>
       </c>
@@ -1789,7 +1805,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1806,7 +1822,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1823,7 +1839,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>8</v>
       </c>
@@ -1842,7 +1858,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>60</v>
       </c>
@@ -1867,7 +1883,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>57</v>
       </c>
@@ -1892,7 +1908,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>68</v>
       </c>
@@ -1917,7 +1933,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1934,7 +1950,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1951,7 +1967,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +1986,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>50</v>
       </c>
@@ -1995,7 +2011,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>69</v>
       </c>
@@ -2020,7 +2036,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>63</v>
       </c>
@@ -2045,7 +2061,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>58</v>
       </c>
@@ -2070,7 +2086,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2087,7 +2103,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2104,7 +2120,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>6</v>
       </c>
@@ -2123,7 +2139,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>74</v>
       </c>
@@ -2148,7 +2164,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>75</v>
       </c>
@@ -2173,7 +2189,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>76</v>
       </c>
@@ -2198,7 +2214,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>70</v>
       </c>
@@ -2223,7 +2239,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>59</v>
       </c>
@@ -2248,7 +2264,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2265,7 +2281,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2282,7 +2298,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>5</v>
       </c>
@@ -2301,7 +2317,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>0</v>
       </c>
@@ -2326,7 +2342,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2343,7 +2359,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2360,7 +2376,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>80</v>
       </c>
@@ -2379,7 +2395,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>81</v>
       </c>
@@ -2400,7 +2416,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>83</v>
       </c>
@@ -2421,7 +2437,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>82</v>
       </c>
@@ -2442,7 +2458,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>78</v>
       </c>
@@ -2463,7 +2479,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>77</v>
       </c>
@@ -2484,7 +2500,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>79</v>
       </c>
@@ -2505,7 +2521,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2522,7 +2538,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2539,7 +2555,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>34</v>
       </c>
@@ -2563,7 +2579,7 @@
       <c r="K72" s="6"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>18</v>
       </c>
@@ -2581,7 +2597,7 @@
       <c r="K73" s="6"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>31</v>
       </c>
@@ -2599,7 +2615,7 @@
       <c r="K74" s="6"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2613,7 +2629,7 @@
       <c r="K75" s="6"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2627,78 +2643,78 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
     </row>
   </sheetData>
@@ -2723,7 +2739,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2765,11 +2781,11 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Can only be marked with capital X!" sqref="C73:E74 F4:F71">
       <formula1>IF(EXACT(C4,"X"),TRUE,FALSE)</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Points for any one custom feature&#10;may only range from 1 - 5." sqref="D70:D71 D3:D68 B3:C71">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Points for any one custom feature_x000a_may only range from 1 - 5." sqref="D70:D71 D3:D68 B3:C71">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Points for any one custom feature&#10;may only range from 1 - 5." sqref="D69">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Points for any one custom feature_x000a_may only range from 1 - 5." sqref="D69">
       <formula1>1</formula1>
       <formula2>6</formula2>
     </dataValidation>
@@ -2784,24 +2800,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
+++ b/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -891,7 +891,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H4" s="17">
         <f>IF(SUMIF(E4:E71,"=I",G4:G71) + SUMIF(C73:C74, "X",B73:B74) &gt; 18, 18, SUMIF(E4:E71,"=I",G4:G71) + SUMIF(C73:C74, "X",B73:B74))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E71,"=II",G4:G71) + SUMIF(D73:D74, "X",B73:B74) &gt; 18, 18, SUMIF(E4:E71,"=II",G4:G71) + SUMIF(D73:D74, "X",B73:B74))</f>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G71) + SUMIF(C73:C74, "X",B73:B74) + SUMIF(D73:D74, "X",B73:B74) + SUMIF(E73:E74, "X",B73:B74)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1051,11 +1051,15 @@
       <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>27</v>
@@ -1160,7 +1164,7 @@
       </c>
       <c r="H8" s="18">
         <f>H4+IF(H4 &lt; 18, IF(K4+H4 &gt; 18, 18- H4, K4),0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I8" s="17">
         <f>I4+IF(I4 &lt; 18, IF(H10+I4 &gt; 18, 18- I4, H10),0)</f>
@@ -2739,7 +2743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
+++ b/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -891,7 +891,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H4" s="17">
         <f>IF(SUMIF(E4:E71,"=I",G4:G71) + SUMIF(C73:C74, "X",B73:B74) &gt; 18, 18, SUMIF(E4:E71,"=I",G4:G71) + SUMIF(C73:C74, "X",B73:B74))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E71,"=II",G4:G71) + SUMIF(D73:D74, "X",B73:B74) &gt; 18, 18, SUMIF(E4:E71,"=II",G4:G71) + SUMIF(D73:D74, "X",B73:B74))</f>
@@ -1031,11 +1031,11 @@
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G71) + SUMIF(C73:C74, "X",B73:B74) + SUMIF(D73:D74, "X",B73:B74) + SUMIF(E73:E74, "X",B73:B74)</f>
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="H6" s="17">
         <f>IF(SUMIF(E4:E71,"=I",G4:G71) + SUMIF(C73:C74, "X",B73:B74)  &gt; 18, SUMIF(E4:E71,"=I",G4:G71) + SUMIF(C73:C74, "X",B73:B74) - 18,0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" s="17">
         <f>IF(SUMIF(E4:E71,"=II",G4:G71) + SUMIF(D73:D74, "X",B73:B74) &gt; 18, SUMIF(E4:E71,"=II",G4:G71) + SUMIF(D73:D74, "X",B73:B74) - 18,0)</f>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H8" s="18">
         <f>H4+IF(H4 &lt; 18, IF(K4+H4 &gt; 18, 18- H4, K4),0)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I8" s="17">
         <f>I4+IF(I4 &lt; 18, IF(H10+I4 &gt; 18, 18- I4, H10),0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 18, IF(I10+J4 &gt; 18, 18- J4, I10),0)</f>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="H10" s="19">
         <f>IF(K4+H4 - 18 &gt; 0, K4+H4 - 18, 0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 18 &gt; 0, H10+I4 - 18, 0)</f>
@@ -1369,11 +1369,15 @@
       <c r="D17" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G17" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1547,11 +1551,15 @@
       <c r="D25" s="5">
         <v>2</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G25" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1572,11 +1580,15 @@
       <c r="D26" s="5">
         <v>2</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
+      <c r="E26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G26" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1597,11 +1609,15 @@
       <c r="D27" s="5">
         <v>2</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G27" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1622,11 +1638,15 @@
       <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G28" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -2590,7 +2610,9 @@
       <c r="B73" s="6">
         <v>2</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="5"/>
@@ -2608,7 +2630,9 @@
       <c r="B74" s="6">
         <v>1</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="5"/>
@@ -2743,7 +2767,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
+++ b/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
@@ -891,7 +891,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,7 +2767,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
+++ b/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
@@ -169,12 +169,6 @@
     <t>Before Carry</t>
   </si>
   <si>
-    <t>Student Name:</t>
-  </si>
-  <si>
-    <t>Student Git Address:</t>
-  </si>
-  <si>
     <t>All Graphics API Objects cleaned up in memory</t>
   </si>
   <si>
@@ -338,6 +332,12 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Pablo Bernal</t>
+  </si>
+  <si>
+    <t>Student Git Address: https://github.com/PabloBernalAlarcon/GX2ProhectRepo.git</t>
   </si>
 </sst>
 </file>
@@ -891,7 +891,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +912,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -928,7 +928,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -975,10 +975,10 @@
         <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>28</v>
@@ -991,12 +991,12 @@
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -1008,10 +1008,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" ref="G4:G30" si="0" xml:space="preserve"> IF(EXACT(F4,"X"),IF(EXACT(E4,"I"),$B4,IF(EXACT(E4,"II"),$C4,IF(EXACT(E4,"III"),$D4,0))),0)</f>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -1052,10 +1052,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5">
         <v>4</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5">
         <v>4</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5">
         <v>4</v>
@@ -1370,10 +1370,10 @@
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" si="0"/>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="5">
         <v>2</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5">
         <v>4</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="5">
         <v>4</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="5">
         <v>4</v>
@@ -1552,10 +1552,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" si="0"/>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="5">
         <v>4</v>
@@ -1581,10 +1581,10 @@
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" si="0"/>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5">
         <v>4</v>
@@ -1610,10 +1610,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" si="0"/>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5">
         <v>2</v>
@@ -1639,10 +1639,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" si="0"/>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="5">
         <v>1</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" s="5">
         <v>4</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" s="5">
         <v>4</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="5">
         <v>2</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" s="5">
         <v>4</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" s="5">
         <v>2</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B41" s="5">
         <v>4</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" s="5">
         <v>2</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B46" s="5">
         <v>2</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47" s="5">
         <v>3</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B48" s="5">
         <v>4</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B55" s="5">
         <v>4</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B56" s="5">
         <v>4</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>19</v>
@@ -2611,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -2625,13 +2625,13 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B74" s="6">
         <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -2767,7 +2767,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
+++ b/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Student Git Address: https://github.com/PabloBernalAlarcon/GX2ProhectRepo.git</t>
+  </si>
+  <si>
+    <t>II</t>
   </si>
 </sst>
 </file>
@@ -891,7 +894,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1026,7 @@
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E71,"=II",G4:G71) + SUMIF(D73:D74, "X",B73:B74) &gt; 18, 18, SUMIF(E4:E71,"=II",G4:G71) + SUMIF(D73:D74, "X",B73:B74))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E71,"=III",G4:G71) + SUMIF(E73:E74, "X",B73:B74) &gt; 18, 18, SUMIF(E4:E71,"=III",G4:G71) + SUMIF(E73:E74, "X",B73:B74))</f>
@@ -1035,7 +1038,7 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G71) + SUMIF(C73:C74, "X",B73:B74) + SUMIF(D73:D74, "X",B73:B74) + SUMIF(E73:E74, "X",B73:B74)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1088,11 +1091,15 @@
       <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G6" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="17">
         <f>IF(SUMIF(E4:E71,"=I",G4:G71) + SUMIF(C73:C74, "X",B73:B74)  &gt; 18, SUMIF(E4:E71,"=I",G4:G71) + SUMIF(C73:C74, "X",B73:B74) - 18,0)</f>
@@ -1168,7 +1175,7 @@
       </c>
       <c r="I8" s="17">
         <f>I4+IF(I4 &lt; 18, IF(H10+I4 &gt; 18, 18- I4, H10),0)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 18, IF(I10+J4 &gt; 18, 18- J4, I10),0)</f>
@@ -1448,7 +1455,9 @@
       <c r="D20" s="5">
         <v>3</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="16">
         <f t="shared" si="0"/>
@@ -1667,7 +1676,9 @@
       <c r="D29" s="5">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="16">
         <f t="shared" si="0"/>
@@ -1692,7 +1703,9 @@
       <c r="D30" s="5">
         <v>1</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="16">
         <f t="shared" si="0"/>
@@ -1717,7 +1730,9 @@
       <c r="D31" s="5">
         <v>1</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="16">
         <f t="shared" ref="G31:G55" si="1" xml:space="preserve"> IF(EXACT(F31,"X"),IF(EXACT(E31,"I"),$B31,IF(EXACT(E31,"II"),$C31,IF(EXACT(E31,"III"),$D31,0))),0)</f>
@@ -2048,7 +2063,9 @@
       <c r="D46" s="5">
         <v>2</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F46" s="3"/>
       <c r="G46" s="16">
         <f t="shared" si="1"/>
@@ -2073,7 +2090,9 @@
       <c r="D47" s="5">
         <v>3</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F47" s="3"/>
       <c r="G47" s="16">
         <f t="shared" si="1"/>
@@ -2176,7 +2195,9 @@
       <c r="D52" s="5">
         <v>1</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F52" s="3"/>
       <c r="G52" s="16">
         <f t="shared" si="1"/>
@@ -2251,7 +2272,9 @@
       <c r="D55" s="5">
         <v>4</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="16">
         <f t="shared" si="1"/>
@@ -2613,7 +2636,9 @@
       <c r="C73" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="3"/>
+      <c r="D73" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -2633,7 +2658,9 @@
       <c r="C74" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -2767,7 +2794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
+++ b/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
   </si>
 </sst>
 </file>
@@ -893,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1029,7 @@
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E71,"=II",G4:G71) + SUMIF(D73:D74, "X",B73:B74) &gt; 18, 18, SUMIF(E4:E71,"=II",G4:G71) + SUMIF(D73:D74, "X",B73:B74))</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E71,"=III",G4:G71) + SUMIF(E73:E74, "X",B73:B74) &gt; 18, 18, SUMIF(E4:E71,"=III",G4:G71) + SUMIF(E73:E74, "X",B73:B74))</f>
@@ -1038,7 +1041,7 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G71) + SUMIF(C73:C74, "X",B73:B74) + SUMIF(D73:D74, "X",B73:B74) + SUMIF(E73:E74, "X",B73:B74)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1091,15 +1094,11 @@
       <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="17">
         <f>IF(SUMIF(E4:E71,"=I",G4:G71) + SUMIF(C73:C74, "X",B73:B74)  &gt; 18, SUMIF(E4:E71,"=I",G4:G71) + SUMIF(C73:C74, "X",B73:B74) - 18,0)</f>
@@ -1175,11 +1174,11 @@
       </c>
       <c r="I8" s="17">
         <f>I4+IF(I4 &lt; 18, IF(H10+I4 &gt; 18, 18- I4, H10),0)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 18, IF(I10+J4 &gt; 18, 18- J4, I10),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1240,7 +1239,7 @@
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 18 &gt; 0, H10+I4 - 18, 0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J10" s="19">
         <f>IF(I10+J4 - 18 &gt; 0, I10+J4 - 18, 0)</f>
@@ -1430,11 +1429,15 @@
       <c r="D19" s="5">
         <v>4</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G19" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -2066,10 +2069,12 @@
       <c r="E46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G46" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -2093,10 +2098,12 @@
       <c r="E47" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G47" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -2377,11 +2384,15 @@
       <c r="D60" s="5">
         <v>4</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="3"/>
+      <c r="E60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G60" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -2430,7 +2441,9 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F63" s="3"/>
       <c r="G63" s="16">
         <f t="shared" ref="G63:G68" si="3" xml:space="preserve"> IF(EXACT(F63,"X"),IF(EXACT(E63,"I"),$B63,IF(EXACT(E63,"II"),$C63,IF(EXACT(E63,"III"),$D63,0))),0)</f>
@@ -2794,7 +2807,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
+++ b/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>II</t>
-  </si>
-  <si>
-    <t>III</t>
   </si>
 </sst>
 </file>
@@ -896,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,9 +1676,7 @@
       <c r="D29" s="5">
         <v>1</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="3"/>
       <c r="G29" s="16">
         <f t="shared" si="0"/>
@@ -1706,9 +1701,7 @@
       <c r="D30" s="5">
         <v>1</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="3"/>
       <c r="G30" s="16">
         <f t="shared" si="0"/>
@@ -1733,9 +1726,7 @@
       <c r="D31" s="5">
         <v>1</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="3"/>
       <c r="G31" s="16">
         <f t="shared" ref="G31:G55" si="1" xml:space="preserve"> IF(EXACT(F31,"X"),IF(EXACT(E31,"I"),$B31,IF(EXACT(E31,"II"),$C31,IF(EXACT(E31,"III"),$D31,0))),0)</f>
@@ -2202,9 +2193,7 @@
       <c r="D52" s="5">
         <v>1</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="E52" s="2"/>
       <c r="F52" s="3"/>
       <c r="G52" s="16">
         <f t="shared" si="1"/>
@@ -2279,9 +2268,7 @@
       <c r="D55" s="5">
         <v>4</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="3"/>
       <c r="G55" s="16">
         <f t="shared" si="1"/>
@@ -2441,9 +2428,7 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="3"/>
       <c r="G63" s="16">
         <f t="shared" ref="G63:G68" si="3" xml:space="preserve"> IF(EXACT(F63,"X"),IF(EXACT(E63,"I"),$B63,IF(EXACT(E63,"II"),$C63,IF(EXACT(E63,"III"),$D63,0))),0)</f>
@@ -2807,7 +2792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
+++ b/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
   </si>
 </sst>
 </file>
@@ -893,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1033,7 @@
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E71,"=III",G4:G71) + SUMIF(E73:E74, "X",B73:B74) &gt; 18, 18, SUMIF(E4:E71,"=III",G4:G71) + SUMIF(E73:E74, "X",B73:B74))</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
@@ -1038,7 +1041,7 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G71) + SUMIF(C73:C74, "X",B73:B74) + SUMIF(D73:D74, "X",B73:B74) + SUMIF(E73:E74, "X",B73:B74)</f>
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1112,7 +1115,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="15">
         <f>IF(L4 &gt; 54, SUM(-54,L4),0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1175,7 +1178,7 @@
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 18, IF(I10+J4 &gt; 18, 18- J4, I10),0)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1240,7 +1243,7 @@
       </c>
       <c r="J10" s="19">
         <f>IF(I10+J4 - 18 &gt; 0, I10+J4 - 18, 0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1456,12 +1459,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1676,11 +1681,15 @@
       <c r="D29" s="5">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G29" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1701,11 +1710,15 @@
       <c r="D30" s="5">
         <v>1</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
+      <c r="E30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G30" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1726,11 +1739,15 @@
       <c r="D31" s="5">
         <v>1</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G31" s="16">
         <f t="shared" ref="G31:G55" si="1" xml:space="preserve"> IF(EXACT(F31,"X"),IF(EXACT(E31,"I"),$B31,IF(EXACT(E31,"II"),$C31,IF(EXACT(E31,"III"),$D31,0))),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2268,11 +2285,15 @@
       <c r="D55" s="5">
         <v>4</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="3"/>
+      <c r="E55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G55" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -2449,11 +2470,15 @@
       <c r="D64" s="5">
         <v>3</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="3"/>
+      <c r="E64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G64" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -2637,7 +2662,9 @@
       <c r="D73" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -2659,7 +2686,9 @@
       <c r="D74" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>

--- a/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
+++ b/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
@@ -896,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
@@ -2821,7 +2821,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
+++ b/BernalPabloGraphics2Project/Dev IV Project Rubric.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E71,"=III",G4:G71) + SUMIF(E73:E74, "X",B73:B74) &gt; 18, 18, SUMIF(E4:E71,"=III",G4:G71) + SUMIF(E73:E74, "X",B73:B74))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G71) + SUMIF(C73:C74, "X",B73:B74) + SUMIF(D73:D74, "X",B73:B74) + SUMIF(E73:E74, "X",B73:B74)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1115,7 +1115,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="15">
         <f>IF(L4 &gt; 54, SUM(-54,L4),0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="J10" s="19">
         <f>IF(I10+J4 - 18 &gt; 0, I10+J4 - 18, 0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -2210,11 +2210,15 @@
       <c r="D52" s="5">
         <v>1</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="3"/>
+      <c r="E52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G52" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -2260,11 +2264,15 @@
       <c r="D54" s="5">
         <v>1</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="3"/>
+      <c r="E54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G54" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -2821,7 +2829,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
